--- a/pzf/GDP_per_person.xlsx
+++ b/pzf/GDP_per_person.xlsx
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,10 +502,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,175 +961,203 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="7" width="12.8888888888889"/>
     <col min="8" max="8" width="11.7777777777778"/>
     <col min="9" max="17" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>2007</v>
-      </c>
-      <c r="C1">
-        <v>2008</v>
-      </c>
-      <c r="D1">
-        <v>2009</v>
-      </c>
-      <c r="E1">
-        <v>2010</v>
-      </c>
-      <c r="F1">
-        <v>2011</v>
-      </c>
-      <c r="G1">
-        <v>2012</v>
-      </c>
-      <c r="H1">
-        <v>2013</v>
-      </c>
-      <c r="I1">
-        <v>2014</v>
-      </c>
-      <c r="J1">
-        <v>2015</v>
-      </c>
-      <c r="K1">
-        <v>2016</v>
-      </c>
-      <c r="L1">
-        <v>2017</v>
-      </c>
-      <c r="M1">
-        <v>2018</v>
-      </c>
-      <c r="N1">
-        <v>2019</v>
-      </c>
-      <c r="O1">
-        <v>2020</v>
-      </c>
-      <c r="P1">
-        <v>2021</v>
-      </c>
-      <c r="Q1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1" spans="1:17">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>4114290.79472035</v>
       </c>
       <c r="C2">
+        <v>35779.0156794464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3">
         <v>4061952.49219525</v>
-      </c>
-      <c r="D2">
-        <v>3831174.59726507</v>
-      </c>
-      <c r="E2">
-        <v>3987456.7544624</v>
-      </c>
-      <c r="F2">
-        <v>3995800.57960777</v>
-      </c>
-      <c r="G2">
-        <v>4057207.50982927</v>
-      </c>
-      <c r="H2">
-        <v>4144533.67034407</v>
-      </c>
-      <c r="I2">
-        <v>4162329.51554103</v>
-      </c>
-      <c r="J2">
-        <v>4231776.53156731</v>
-      </c>
-      <c r="K2">
-        <v>4265857.68657339</v>
-      </c>
-      <c r="L2">
-        <v>4340877.56328954</v>
-      </c>
-      <c r="M2">
-        <v>4374353.04244111</v>
-      </c>
-      <c r="N2">
-        <v>4362884.76482433</v>
-      </c>
-      <c r="O2">
-        <v>4188518.50424121</v>
-      </c>
-      <c r="P2">
-        <v>4297980.25455486</v>
-      </c>
-      <c r="Q2">
-        <v>4361506.07831022</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:17">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>35779.0156794464</v>
       </c>
       <c r="C3">
         <v>39876.3062956324</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>3831174.59726507</v>
+      </c>
+      <c r="C4">
         <v>41309.0016548642</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>3987456.7544624</v>
+      </c>
+      <c r="C5">
         <v>44968.1562349739</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>3995800.57960777</v>
+      </c>
+      <c r="C6">
         <v>48760.0789494211</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>4057207.50982927</v>
+      </c>
+      <c r="C7">
         <v>49145.2804308193</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>4144533.67034407</v>
+      </c>
+      <c r="C8">
         <v>40898.6478964744</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>4162329.51554103</v>
+      </c>
+      <c r="C9">
         <v>38475.3952461838</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>4231776.53156731</v>
+      </c>
+      <c r="C10">
         <v>34960.6393843385</v>
       </c>
-      <c r="K3">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>4265857.68657339</v>
+      </c>
+      <c r="C11">
         <v>39375.4731620781</v>
       </c>
-      <c r="L3">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>4340877.56328954</v>
+      </c>
+      <c r="C12">
         <v>38834.0529341227</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>4374353.04244111</v>
+      </c>
+      <c r="C13">
         <v>39751.1330982711</v>
       </c>
-      <c r="N3">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>4362884.76482433</v>
+      </c>
+      <c r="C14">
         <v>40415.9567649547</v>
       </c>
-      <c r="O3">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15">
+        <v>4188518.50424121</v>
+      </c>
+      <c r="C15">
         <v>39986.9286287091</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16">
+        <v>4297980.25455486</v>
+      </c>
+      <c r="C16">
         <v>39827.1267678179</v>
       </c>
-      <c r="Q3">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17">
+        <v>4361506.07831022</v>
+      </c>
+      <c r="C17">
         <v>33815.3172733799</v>
       </c>
     </row>
